--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Task</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Create Manage Business Information Page</t>
   </si>
   <si>
-    <t>This page is once you get into the vendor business. This shows all of the basic options they can do such as edit their business information. As well as add photos.</t>
-  </si>
-  <si>
     <t>Create Manage Promos Page</t>
   </si>
   <si>
@@ -76,6 +73,102 @@
   </si>
   <si>
     <t>The reports page will get business review stats, business stats general, ppc stats if applicable, rating stats, mobile app stats, and web stats. All of this is for premium members with the exception of some basic statistical data which counts as business stats general.</t>
+  </si>
+  <si>
+    <t>This page is once you get into the vendor business. This shows all of the basic options they can do such as edit their business information. As well as add photos and create menu.</t>
+  </si>
+  <si>
+    <t>Create Manage Reviews Page</t>
+  </si>
+  <si>
+    <t>This page will go hand and hand with the review system. Allowing users to delete reviews made by people without accounts. Delete 1 review a month of people who are registered but not verified and submit for deletion review for all other registered verified members including non verified incase they went over their limit. This page will also allow them to respond to customers. Customers will be emailed if subscribed to wheres the grub as a response as been made upon their review.</t>
+  </si>
+  <si>
+    <t>Create a subscription signup page</t>
+  </si>
+  <si>
+    <t>This page will draw the users to our services as a premium member. It will layout all the qualities of being a premium member then a regular member. It will also have a signup for month to month, 3 month, 6month, and 1 year subscription. As we will promote signing up for 1 year at a time with a recurring subscription billing setup.</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Update all listing results</t>
+  </si>
+  <si>
+    <t>I will need to change the way we get listing results for all parts of the website to effectively show premium and PPC members being ahead of everybody as well as showing up as a competitor.</t>
+  </si>
+  <si>
+    <t>Update restaurant profiles</t>
+  </si>
+  <si>
+    <t>I will need to update the restaurant profiles to show anything that’s missing, menu items, review responses, follow button for consumers, photos, etc.</t>
+  </si>
+  <si>
+    <t>Create where are you page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I cannot accurately get where somebody is by their zipcode initially I will bounce them to a page that requires them to submit where they are. </t>
+  </si>
+  <si>
+    <t>Create link tracking</t>
+  </si>
+  <si>
+    <t>For all vendorstats_types I must update the website so these details are actually tracked in the database for reports and stats</t>
+  </si>
+  <si>
+    <t>Create services page for restaurants/adding restaurant</t>
+  </si>
+  <si>
+    <t>Create a page for the public to see what it takes to create a listing as a restaurant to add</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Update profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure users can upload photos of themselves as profile pictures for their avatar, update their bio, remove followed restaurants, add followed restaurants. </t>
+  </si>
+  <si>
+    <t>Update feed page</t>
+  </si>
+  <si>
+    <t>Create the feed page for information of coupons, deals, of people the consumer followed in chronological order.</t>
+  </si>
+  <si>
+    <t>Reviews Check</t>
+  </si>
+  <si>
+    <t>Make sure consumers can leave reviews, get activated accounts, and that anonymous people can leave reviews on restaurant page.</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test the website as a whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test each page, consumer, vendor, website. Test all functionalities. Go over everything and anything. Double check for bugs. </t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Update all social medias</t>
+  </si>
+  <si>
+    <t>Submit announcements that we will be launching soon. Specify date, update all additional information needed on social platforms.</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Soft Launch</t>
+  </si>
+  <si>
+    <t>We will be launching our website into the public atmosphere of the interwebs. This is a soft launch so we will not be doing extreme mass marketing to promote the site until we get some initial feedback. Marketing comes with dates listed below in time schedule.</t>
   </si>
 </sst>
 </file>
@@ -448,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -512,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>42736</v>
@@ -526,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>42738</v>
@@ -537,10 +630,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>42739</v>
@@ -551,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>42743</v>
@@ -565,13 +658,195 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>42748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42767</v>
       </c>
     </row>
   </sheetData>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19940" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,18 +210,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -544,18 +585,18 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="76.375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -569,49 +610,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>42734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -622,10 +663,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>42738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -636,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>42739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -650,10 +691,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>42743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -664,10 +705,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>42748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -678,10 +719,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>42752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -692,10 +733,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>42756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -706,10 +747,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -720,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>42759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -734,10 +775,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="1">
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -748,10 +789,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>42761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -762,10 +803,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>42762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -776,10 +817,10 @@
         <v>36</v>
       </c>
       <c r="D19" s="1">
-        <v>42763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -790,10 +831,10 @@
         <v>38</v>
       </c>
       <c r="D20" s="1">
-        <v>42764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -804,10 +845,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>42765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -818,10 +859,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="1">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -832,10 +873,10 @@
         <v>46</v>
       </c>
       <c r="D24" s="1">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -846,11 +887,12 @@
         <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>42767</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,16 +709,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,16 +653,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="21580" yWindow="7000" windowWidth="19940" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,18 +585,18 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="76.375" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -778,21 +778,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -892,7 +892,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
